--- a/dg_user_mons.xlsx
+++ b/dg_user_mons.xlsx
@@ -9,19 +9,26 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,7 +56,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -322,13 +329,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D1:E1"/>
+  <dimension ref="D1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AEA1152" sqref="AEA1152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="D1" t="n">
@@ -337,8 +344,202 @@
       <c r="E1" t="n">
         <v>1</v>
       </c>
+      <c r="F1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="4294967293"/>
 </worksheet>
 </file>